--- a/biology/Médecine/La_Maladie_de_Sachs_(film)/La_Maladie_de_Sachs_(film).xlsx
+++ b/biology/Médecine/La_Maladie_de_Sachs_(film)/La_Maladie_de_Sachs_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maladie de Sachs est un film français réalisé par Michel Deville, sorti en salles le 22 septembre 1999.
 C'est l'adaptation cinématographique du roman éponyme de Martin Winckler publié en 1998.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cabinet du docteur Bruno Sachs, les consultations se suivent à un rythme effréné. On vient pour tout, on se confie. Le docteur semble toujours disposé et attentionné. Dans le village, le personnage est un mystère et on glose sur sa vie privée ; on observe ses allées et venues.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Maladie de Sachs
 Réalisation : Michel Deville
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,7 +625,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival de Saint-Sébastien 1999 : Coquille d'argent du meilleur réalisateur pour Michel Deville
 Prix de la critique 2000 : Prix Méliès du meilleur film français.</t>
@@ -638,7 +658,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Winckler, auteur du livre éponyme, apparaît dans une scène du film et est cité dans une autre. Lorsque Pauline Kasser entre dans la librairie, elle demande La Vacation, qui est un autre roman de Martin Winckler.
 </t>
